--- a/resultados/Tabla Completa.xlsx
+++ b/resultados/Tabla Completa.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2MH\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica3MH\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643E03F-A9CE-4D28-98E6-B211A0F4A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F9FF4-9553-43F8-9A0B-86D2E16E4D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
   </bookViews>
   <sheets>
     <sheet name="Práctica 1" sheetId="1" r:id="rId1"/>
     <sheet name="Práctica 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Resultados acumulados" sheetId="3" r:id="rId3"/>
+    <sheet name="Práctica 3" sheetId="5" r:id="rId3"/>
+    <sheet name="Resultados acumulados" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="82">
   <si>
     <t>Nº casos:</t>
   </si>
@@ -272,6 +273,15 @@
   </si>
   <si>
     <t>AM-10-0.1mej</t>
+  </si>
+  <si>
+    <t>Algoritmo ES</t>
+  </si>
+  <si>
+    <t>Algoritmo BMB</t>
+  </si>
+  <si>
+    <t>Algoritmo ILS</t>
   </si>
 </sst>
 </file>
@@ -518,7 +528,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -652,6 +662,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{0A5E581D-50BD-4C9C-9FD4-0C42DCE8C6AA}"/>
@@ -1010,21 +1023,21 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="31"/>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="8"/>
       <c r="S2" s="9"/>
       <c r="T2" s="31"/>
@@ -3437,21 +3450,21 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="37"/>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="37"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
@@ -5824,18 +5837,18 @@
     </row>
     <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="N56" s="36" t="s">
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="N56" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
     </row>
     <row r="57" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F57" s="13" t="s">
@@ -7283,24 +7296,24 @@
     </row>
     <row r="109" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="6:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F110" s="36" t="s">
+      <c r="F110" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="N110" s="36" t="s">
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="N110" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
-      <c r="Q110" s="36"/>
-      <c r="V110" s="36" t="s">
+      <c r="O110" s="61"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="61"/>
+      <c r="V110" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
+      <c r="W110" s="61"/>
+      <c r="X110" s="61"/>
+      <c r="Y110" s="61"/>
     </row>
     <row r="111" spans="6:25" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F111" s="13" t="s">
@@ -9432,10 +9445,3331 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCB198A-FFE2-4819-9FFB-89A986742E0E}">
+  <dimension ref="A1:AB115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="N2" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+    </row>
+    <row r="3" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="N3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="43">
+        <v>25</v>
+      </c>
+      <c r="C4" s="43">
+        <v>2</v>
+      </c>
+      <c r="D4" s="43">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <f>G4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="43">
+        <v>25</v>
+      </c>
+      <c r="C5" s="43">
+        <v>2</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="N5" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+    </row>
+    <row r="6" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="43">
+        <v>25</v>
+      </c>
+      <c r="C6" s="43">
+        <v>2</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="46">
+        <f>AVERAGE(H4:H53)</f>
+        <v>0.64411707739281976</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="46">
+        <f>AVERAGE(P4:P53)</f>
+        <v>0.37323098692555251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="43">
+        <v>25</v>
+      </c>
+      <c r="C7" s="43">
+        <v>2</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="38" t="e">
+        <f>AVERAGE(I4:I53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="38" t="e">
+        <f>AVERAGE(Q4:Q53)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="43">
+        <v>25</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="N8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="42"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="43">
+        <v>25</v>
+      </c>
+      <c r="C9" s="43">
+        <v>7</v>
+      </c>
+      <c r="D9" s="43">
+        <v>12.7179599999997</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="19">
+        <v>35.3431</v>
+      </c>
+      <c r="H9" s="20">
+        <f>(G9-D9)/G9</f>
+        <v>0.64015720183006863</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="N9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="19">
+        <v>20.395600000000002</v>
+      </c>
+      <c r="P9" s="20">
+        <f>(O9-D9)/O9</f>
+        <v>0.37643609405951783</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="43">
+        <v>25</v>
+      </c>
+      <c r="C10" s="43">
+        <v>7</v>
+      </c>
+      <c r="D10" s="43">
+        <v>14.098749999999701</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="19">
+        <v>23.762499999999999</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ref="H10:H53" si="0">(G10-D10)/G10</f>
+        <v>0.40668069437139609</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="N10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="19">
+        <v>24.0961</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" ref="P10:P53" si="1">(O10-D10)/O10</f>
+        <v>0.41489494150506928</v>
+      </c>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="43">
+        <v>25</v>
+      </c>
+      <c r="C11" s="43">
+        <v>7</v>
+      </c>
+      <c r="D11" s="43">
+        <v>16.7611899999998</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="19">
+        <v>26.1799</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35976875389135177</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="N11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="19">
+        <v>16.761199999999999</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="1"/>
+        <v>5.966160059287754E-7</v>
+      </c>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="42"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="43">
+        <v>25</v>
+      </c>
+      <c r="C12" s="43">
+        <v>7</v>
+      </c>
+      <c r="D12" s="43">
+        <v>17.069209999999899</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="19">
+        <v>25.825800000000001</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33906364952876977</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="N12" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="19">
+        <v>17.069299999999998</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="1"/>
+        <v>5.2726239564376698E-6</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="42"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="43">
+        <v>25</v>
+      </c>
+      <c r="C13" s="43">
+        <v>7</v>
+      </c>
+      <c r="D13" s="43">
+        <v>23.265229999999899</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="19">
+        <v>33.910499999999999</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31392253136934284</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="40"/>
+      <c r="L13" s="42"/>
+      <c r="N13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="19">
+        <v>30.880600000000001</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24660693121247973</v>
+      </c>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="40"/>
+      <c r="T13" s="42"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="43">
+        <v>50</v>
+      </c>
+      <c r="C14" s="43">
+        <v>5</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1.9261000000000199</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="19">
+        <v>6.7080099999999998</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.71286566358726067</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="40"/>
+      <c r="L14" s="42"/>
+      <c r="N14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="19">
+        <v>3.7085599999999999</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4806339927087549</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="40"/>
+      <c r="T14" s="42"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="43">
+        <v>50</v>
+      </c>
+      <c r="C15" s="43">
+        <v>5</v>
+      </c>
+      <c r="D15" s="43">
+        <v>2.1210400000001099</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3.9314</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.46048735819298214</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="40"/>
+      <c r="L15" s="42"/>
+      <c r="N15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="19">
+        <v>6.0227700000000004</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="1"/>
+        <v>0.6478298191695665</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="40"/>
+      <c r="T15" s="42"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="43">
+        <v>50</v>
+      </c>
+      <c r="C16" s="43">
+        <v>5</v>
+      </c>
+      <c r="D16" s="43">
+        <v>2.3623099999999799</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2.3622700000000001</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.6932865413282116E-5</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="40"/>
+      <c r="L16" s="42"/>
+      <c r="N16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="19">
+        <v>11.239100000000001</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="1"/>
+        <v>0.78981324127376928</v>
+      </c>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="40"/>
+      <c r="T16" s="42"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="43">
+        <v>50</v>
+      </c>
+      <c r="C17" s="43">
+        <v>5</v>
+      </c>
+      <c r="D17" s="43">
+        <v>1.6631999999999001</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="19">
+        <v>7.3065499999999997</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77236862814872953</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="40"/>
+      <c r="L17" s="42"/>
+      <c r="N17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="19">
+        <v>7.6389800000000001</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" si="1"/>
+        <v>0.78227459687027578</v>
+      </c>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="40"/>
+      <c r="T17" s="42"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="43">
+        <v>50</v>
+      </c>
+      <c r="C18" s="43">
+        <v>5</v>
+      </c>
+      <c r="D18" s="43">
+        <v>2.8531299999999602</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="19">
+        <v>8.2203999999999997</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0.65292078244368157</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="5"/>
+      <c r="L18" s="42"/>
+      <c r="N18" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="19">
+        <v>6.7300399999999998</v>
+      </c>
+      <c r="P18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.57606046917998111</v>
+      </c>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="5"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="43">
+        <v>50</v>
+      </c>
+      <c r="C19" s="43">
+        <v>15</v>
+      </c>
+      <c r="D19" s="43">
+        <v>42.745779999999101</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="19">
+        <v>187.79300000000001</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77237820366041809</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="5"/>
+      <c r="L19" s="42"/>
+      <c r="N19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="19">
+        <v>62.646000000000001</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="1"/>
+        <v>0.31766146282286017</v>
+      </c>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="5"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="43">
+        <v>50</v>
+      </c>
+      <c r="C20" s="43">
+        <v>15</v>
+      </c>
+      <c r="D20" s="43">
+        <v>48.107609999999603</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="19">
+        <v>128.66200000000001</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62609309664081392</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="37"/>
+      <c r="L20" s="42"/>
+      <c r="N20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="19">
+        <v>74.745500000000007</v>
+      </c>
+      <c r="P20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.35638118682730602</v>
+      </c>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="37"/>
+      <c r="T20" s="42"/>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="43">
+        <v>50</v>
+      </c>
+      <c r="C21" s="43">
+        <v>15</v>
+      </c>
+      <c r="D21" s="43">
+        <v>43.1960899999997</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19">
+        <v>146.64699999999999</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0.70544170695616204</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="37"/>
+      <c r="L21" s="42"/>
+      <c r="N21" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="19">
+        <v>68.645099999999999</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37073308947033801</v>
+      </c>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="37"/>
+      <c r="T21" s="42"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="43">
+        <v>50</v>
+      </c>
+      <c r="C22" s="43">
+        <v>15</v>
+      </c>
+      <c r="D22" s="43">
+        <v>46.412449999999403</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="19">
+        <v>150.749</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>0.69212100909459162</v>
+      </c>
+      <c r="I22" s="45"/>
+      <c r="J22" s="40"/>
+      <c r="L22" s="42"/>
+      <c r="N22" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="19">
+        <v>78.823700000000002</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.41118661011853791</v>
+      </c>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="40"/>
+      <c r="T22" s="42"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="43">
+        <v>50</v>
+      </c>
+      <c r="C23" s="43">
+        <v>15</v>
+      </c>
+      <c r="D23" s="43">
+        <v>47.715109999999598</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="19">
+        <v>141.173</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6620096619041913</v>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="42"/>
+      <c r="N23" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="19">
+        <v>60.922600000000003</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21679130568952087</v>
+      </c>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="42"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="43">
+        <v>100</v>
+      </c>
+      <c r="C24" s="43">
+        <v>10</v>
+      </c>
+      <c r="D24" s="43">
+        <v>13.832019999999901</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="19">
+        <v>63.0884</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78075177053150979</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="42"/>
+      <c r="N24" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="19">
+        <v>20.524000000000001</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.32605632430325959</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="42"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="43">
+        <v>100</v>
+      </c>
+      <c r="C25" s="43">
+        <v>10</v>
+      </c>
+      <c r="D25" s="43">
+        <v>13.664340000000299</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="19">
+        <v>54.9651</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75139970635912057</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="42"/>
+      <c r="N25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="19">
+        <v>28.6768</v>
+      </c>
+      <c r="P25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52350541204038459</v>
+      </c>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="43">
+        <v>100</v>
+      </c>
+      <c r="C26" s="43">
+        <v>10</v>
+      </c>
+      <c r="D26" s="43">
+        <v>15.3453799999998</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="19">
+        <v>60.752200000000002</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.74741029954471117</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="42"/>
+      <c r="N26" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="19">
+        <v>32.467500000000001</v>
+      </c>
+      <c r="P26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52736182336182957</v>
+      </c>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="43">
+        <v>100</v>
+      </c>
+      <c r="C27" s="43">
+        <v>10</v>
+      </c>
+      <c r="D27" s="43">
+        <v>8.6406399999993901</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="19">
+        <v>72.843000000000004</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>0.88137995414797043</v>
+      </c>
+      <c r="I27" s="45"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="42"/>
+      <c r="N27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="19">
+        <v>24.583600000000001</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" si="1"/>
+        <v>0.64852015164583743</v>
+      </c>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="43">
+        <v>100</v>
+      </c>
+      <c r="C28" s="43">
+        <v>10</v>
+      </c>
+      <c r="D28" s="43">
+        <v>17.200509999999898</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="19">
+        <v>66.075000000000003</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>0.73968202799848815</v>
+      </c>
+      <c r="I28" s="45"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="42"/>
+      <c r="N28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="19">
+        <v>28.683599999999998</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4003364291790466</v>
+      </c>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="42"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="43">
+        <v>100</v>
+      </c>
+      <c r="C29" s="43">
+        <v>30</v>
+      </c>
+      <c r="D29" s="43">
+        <v>168.729590000001</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="19">
+        <v>650.55200000000002</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0.74063627504027196</v>
+      </c>
+      <c r="I29" s="45"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="42"/>
+      <c r="N29" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="19">
+        <v>264.928</v>
+      </c>
+      <c r="P29" s="20">
+        <f t="shared" si="1"/>
+        <v>0.36311152464065333</v>
+      </c>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="43">
+        <v>100</v>
+      </c>
+      <c r="C30" s="43">
+        <v>30</v>
+      </c>
+      <c r="D30" s="43">
+        <v>127.09726000000001</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="19">
+        <v>562.44299999999998</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77402641689913465</v>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="42"/>
+      <c r="N30" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="19">
+        <v>231.107</v>
+      </c>
+      <c r="P30" s="20">
+        <f t="shared" si="1"/>
+        <v>0.45005014993055165</v>
+      </c>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="43">
+        <v>100</v>
+      </c>
+      <c r="C31" s="43">
+        <v>30</v>
+      </c>
+      <c r="D31" s="43">
+        <v>106.379189999999</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="19">
+        <v>657.85400000000004</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0.83829361834084926</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="42"/>
+      <c r="N31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="19">
+        <v>200.851</v>
+      </c>
+      <c r="P31" s="20">
+        <f t="shared" si="1"/>
+        <v>0.47035767807977558</v>
+      </c>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="43">
+        <v>100</v>
+      </c>
+      <c r="C32" s="43">
+        <v>30</v>
+      </c>
+      <c r="D32" s="43">
+        <v>137.453159999999</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="19">
+        <v>550.39200000000005</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75026315789473863</v>
+      </c>
+      <c r="I32" s="45"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="42"/>
+      <c r="N32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="19">
+        <v>199.958</v>
+      </c>
+      <c r="P32" s="20">
+        <f t="shared" si="1"/>
+        <v>0.31258984386721711</v>
+      </c>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="43">
+        <v>100</v>
+      </c>
+      <c r="C33" s="43">
+        <v>30</v>
+      </c>
+      <c r="D33" s="43">
+        <v>127.479740000001</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="19">
+        <v>619.62400000000002</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79426274643977479</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="42"/>
+      <c r="N33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="19">
+        <v>164.84</v>
+      </c>
+      <c r="P33" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22664559572918588</v>
+      </c>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="43">
+        <v>125</v>
+      </c>
+      <c r="C34" s="43">
+        <v>12</v>
+      </c>
+      <c r="D34" s="43">
+        <v>11.7451399999999</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="19">
+        <v>126.08</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="0"/>
+        <v>0.90684375000000084</v>
+      </c>
+      <c r="I34" s="45"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="42"/>
+      <c r="N34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="19">
+        <v>21.7667</v>
+      </c>
+      <c r="P34" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46040787073833428</v>
+      </c>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="42"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="43">
+        <v>125</v>
+      </c>
+      <c r="C35" s="43">
+        <v>12</v>
+      </c>
+      <c r="D35" s="43">
+        <v>18.788929999999699</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="19">
+        <v>90.240799999999993</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79179118536183524</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="42"/>
+      <c r="N35" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="19">
+        <v>36.907499999999999</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" si="1"/>
+        <v>0.49091837702364832</v>
+      </c>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="42"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="43">
+        <v>125</v>
+      </c>
+      <c r="C36" s="43">
+        <v>12</v>
+      </c>
+      <c r="D36" s="43">
+        <v>18.531599999999798</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="19">
+        <v>104.883</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="0"/>
+        <v>0.82331169016904737</v>
+      </c>
+      <c r="I36" s="45"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="42"/>
+      <c r="N36" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="19">
+        <v>33.473300000000002</v>
+      </c>
+      <c r="P36" s="20">
+        <f t="shared" si="1"/>
+        <v>0.44637666438624823</v>
+      </c>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="42"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="43">
+        <v>125</v>
+      </c>
+      <c r="C37" s="43">
+        <v>12</v>
+      </c>
+      <c r="D37" s="43">
+        <v>19.488330000000101</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="19">
+        <v>140.34800000000001</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="0"/>
+        <v>0.86114280217744388</v>
+      </c>
+      <c r="I37" s="45"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="42"/>
+      <c r="N37" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="19">
+        <v>29.904399999999999</v>
+      </c>
+      <c r="P37" s="20">
+        <f t="shared" si="1"/>
+        <v>0.34831228849265988</v>
+      </c>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="42"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="43">
+        <v>125</v>
+      </c>
+      <c r="C38" s="43">
+        <v>12</v>
+      </c>
+      <c r="D38" s="43">
+        <v>18.112419999999801</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="19">
+        <v>112.994</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="0"/>
+        <v>0.83970458608421861</v>
+      </c>
+      <c r="I38" s="45"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="42"/>
+      <c r="N38" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="19">
+        <v>26.491199999999999</v>
+      </c>
+      <c r="P38" s="20">
+        <f t="shared" si="1"/>
+        <v>0.31628540798454574</v>
+      </c>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="42"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="43">
+        <v>125</v>
+      </c>
+      <c r="C39" s="43">
+        <v>37</v>
+      </c>
+      <c r="D39" s="43">
+        <v>155.434770000002</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="19">
+        <v>819.44100000000003</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8103160935320517</v>
+      </c>
+      <c r="I39" s="45"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="42"/>
+      <c r="N39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="19">
+        <v>291.43400000000003</v>
+      </c>
+      <c r="P39" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4666553319104772</v>
+      </c>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="42"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="43">
+        <v>125</v>
+      </c>
+      <c r="C40" s="43">
+        <v>37</v>
+      </c>
+      <c r="D40" s="43">
+        <v>198.89461999999901</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="19">
+        <v>942.75599999999997</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78902852912100374</v>
+      </c>
+      <c r="I40" s="45"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="42"/>
+      <c r="N40" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="19">
+        <v>276.81</v>
+      </c>
+      <c r="P40" s="20">
+        <f t="shared" si="1"/>
+        <v>0.28147603049023157</v>
+      </c>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="42"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="43">
+        <v>125</v>
+      </c>
+      <c r="C41" s="43">
+        <v>37</v>
+      </c>
+      <c r="D41" s="43">
+        <v>187.96702999999999</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="19">
+        <v>855.93499999999995</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78039567256859455</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="42"/>
+      <c r="N41" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="19">
+        <v>329.96300000000002</v>
+      </c>
+      <c r="P41" s="20">
+        <f t="shared" si="1"/>
+        <v>0.43033906831978136</v>
+      </c>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="42"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="43">
+        <v>125</v>
+      </c>
+      <c r="C42" s="43">
+        <v>37</v>
+      </c>
+      <c r="D42" s="43">
+        <v>168.590200000001</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="19">
+        <v>799.60400000000004</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78915788315215907</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="42"/>
+      <c r="N42" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="19">
+        <v>267.97000000000003</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37086166361905815</v>
+      </c>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="42"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="43">
+        <v>125</v>
+      </c>
+      <c r="C43" s="43">
+        <v>37</v>
+      </c>
+      <c r="D43" s="43">
+        <v>178.193740000003</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="19">
+        <v>833.20699999999999</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78613509007965243</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="42"/>
+      <c r="N43" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="19">
+        <v>295.01799999999997</v>
+      </c>
+      <c r="P43" s="20">
+        <f t="shared" si="1"/>
+        <v>0.39599027855926411</v>
+      </c>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="42"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="43">
+        <v>150</v>
+      </c>
+      <c r="C44" s="43">
+        <v>15</v>
+      </c>
+      <c r="D44" s="43">
+        <v>23.346080000000299</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="19">
+        <v>194.72200000000001</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="0"/>
+        <v>0.88010558642577474</v>
+      </c>
+      <c r="I44" s="45"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="42"/>
+      <c r="N44" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="19">
+        <v>44.950699999999998</v>
+      </c>
+      <c r="P44" s="20">
+        <f t="shared" si="1"/>
+        <v>0.48062922268173131</v>
+      </c>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="42"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="43">
+        <v>150</v>
+      </c>
+      <c r="C45" s="43">
+        <v>15</v>
+      </c>
+      <c r="D45" s="43">
+        <v>26.789499999999599</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="19">
+        <v>183.56200000000001</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8540574846645842</v>
+      </c>
+      <c r="I45" s="45"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="42"/>
+      <c r="N45" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" s="19">
+        <v>46.243000000000002</v>
+      </c>
+      <c r="P45" s="20">
+        <f t="shared" si="1"/>
+        <v>0.42067988668556111</v>
+      </c>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="42"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="43">
+        <v>150</v>
+      </c>
+      <c r="C46" s="43">
+        <v>15</v>
+      </c>
+      <c r="D46" s="43">
+        <v>26.7544699999996</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="19">
+        <v>170.95500000000001</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="0"/>
+        <v>0.84349992688134534</v>
+      </c>
+      <c r="I46" s="45"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="42"/>
+      <c r="N46" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="19">
+        <v>47.430100000000003</v>
+      </c>
+      <c r="P46" s="20">
+        <f t="shared" si="1"/>
+        <v>0.43591790866981944</v>
+      </c>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="42"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="43">
+        <v>150</v>
+      </c>
+      <c r="C47" s="43">
+        <v>15</v>
+      </c>
+      <c r="D47" s="43">
+        <v>25.935590000000499</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="19">
+        <v>169.684</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="0"/>
+        <v>0.84715359138162405</v>
+      </c>
+      <c r="I47" s="45"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="42"/>
+      <c r="N47" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47" s="19">
+        <v>44.790199999999999</v>
+      </c>
+      <c r="P47" s="20">
+        <f t="shared" si="1"/>
+        <v>0.42095391402582488</v>
+      </c>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="42"/>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="43">
+        <v>150</v>
+      </c>
+      <c r="C48" s="43">
+        <v>15</v>
+      </c>
+      <c r="D48" s="43">
+        <v>27.773009999999399</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="19">
+        <v>130.828</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78771356284587857</v>
+      </c>
+      <c r="I48" s="45"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="42"/>
+      <c r="N48" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="19">
+        <v>48.888399999999997</v>
+      </c>
+      <c r="P48" s="20">
+        <f t="shared" si="1"/>
+        <v>0.43191002364570324</v>
+      </c>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="42"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="43">
+        <v>150</v>
+      </c>
+      <c r="C49" s="43">
+        <v>45</v>
+      </c>
+      <c r="D49" s="43">
+        <v>227.74930999999799</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1037.47</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78047624509624569</v>
+      </c>
+      <c r="I49" s="45"/>
+      <c r="L49" s="42"/>
+      <c r="N49" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="19">
+        <v>412.30700000000002</v>
+      </c>
+      <c r="P49" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4476220146638355</v>
+      </c>
+      <c r="Q49" s="45"/>
+      <c r="T49" s="42"/>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="43">
+        <v>150</v>
+      </c>
+      <c r="C50" s="43">
+        <v>45</v>
+      </c>
+      <c r="D50" s="43">
+        <v>228.60290000000001</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1069.29</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78621056963031544</v>
+      </c>
+      <c r="I50" s="45"/>
+      <c r="L50" s="42"/>
+      <c r="N50" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="19">
+        <v>363.411</v>
+      </c>
+      <c r="P50" s="20">
+        <f t="shared" si="1"/>
+        <v>0.3709521726089744</v>
+      </c>
+      <c r="Q50" s="45"/>
+      <c r="T50" s="42"/>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="43">
+        <v>150</v>
+      </c>
+      <c r="C51" s="43">
+        <v>45</v>
+      </c>
+      <c r="D51" s="43">
+        <v>226.745339999999</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="19">
+        <v>954.46100000000001</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76243624412102851</v>
+      </c>
+      <c r="I51" s="45"/>
+      <c r="L51" s="42"/>
+      <c r="N51" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="19">
+        <v>393.17899999999997</v>
+      </c>
+      <c r="P51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.42330251615676567</v>
+      </c>
+      <c r="Q51" s="45"/>
+      <c r="T51" s="42"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="43">
+        <v>150</v>
+      </c>
+      <c r="C52" s="43">
+        <v>45</v>
+      </c>
+      <c r="D52" s="43">
+        <v>226.409610000003</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1134.52</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>0.80043577019355938</v>
+      </c>
+      <c r="I52" s="45"/>
+      <c r="L52" s="42"/>
+      <c r="N52" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="O52" s="19">
+        <v>423.553</v>
+      </c>
+      <c r="P52" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46545152554697289</v>
+      </c>
+      <c r="Q52" s="45"/>
+      <c r="T52" s="42"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="43">
+        <v>150</v>
+      </c>
+      <c r="C53" s="43">
+        <v>45</v>
+      </c>
+      <c r="D53" s="43">
+        <v>248.856619999998</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1089.42</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77156962420370656</v>
+      </c>
+      <c r="I53" s="45"/>
+      <c r="L53" s="42"/>
+      <c r="N53" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" s="19">
+        <v>519.16800000000001</v>
+      </c>
+      <c r="P53" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52066263714250882</v>
+      </c>
+      <c r="Q53" s="45"/>
+      <c r="T53" s="42"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="N56" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+    </row>
+    <row r="57" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <v>0</v>
+      </c>
+      <c r="I58" s="45"/>
+      <c r="N58" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="19">
+        <v>0</v>
+      </c>
+      <c r="P58" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="45"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+      <c r="I59" s="45"/>
+      <c r="N59" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O59" s="19">
+        <v>0</v>
+      </c>
+      <c r="P59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="45"/>
+    </row>
+    <row r="60" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
+        <v>0</v>
+      </c>
+      <c r="I60" s="45"/>
+      <c r="K60" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="46" t="e">
+        <f>AVERAGE(H58:H107)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="19">
+        <v>0</v>
+      </c>
+      <c r="P60" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="45"/>
+      <c r="S60" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T60" s="46" t="e">
+        <f>AVERAGE(P58:P107)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0</v>
+      </c>
+      <c r="H61" s="20">
+        <v>0</v>
+      </c>
+      <c r="I61" s="45"/>
+      <c r="K61" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="38" t="e">
+        <f>AVERAGE(I58:I107)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" s="19">
+        <v>0</v>
+      </c>
+      <c r="P61" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="45"/>
+      <c r="S61" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T61" s="38" t="e">
+        <f>AVERAGE(Q58:Q107)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="19">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20">
+        <v>0</v>
+      </c>
+      <c r="I62" s="45"/>
+      <c r="N62" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="19">
+        <v>0</v>
+      </c>
+      <c r="P62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="45"/>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20" t="e">
+        <f>(G63-D9)/G63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="45"/>
+      <c r="N63" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" s="19"/>
+      <c r="P63" s="20" t="e">
+        <f>(O63-D9)/O63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q63" s="45"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20" t="e">
+        <f t="shared" ref="H64:H107" si="2">(G64-D10)/G64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="45"/>
+      <c r="N64" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="19"/>
+      <c r="P64" s="20" t="e">
+        <f t="shared" ref="P64:P107" si="3">(O64-D10)/O64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q64" s="45"/>
+    </row>
+    <row r="65" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="45"/>
+      <c r="N65" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O65" s="19"/>
+      <c r="P65" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q65" s="45"/>
+    </row>
+    <row r="66" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="45"/>
+      <c r="N66" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="19"/>
+      <c r="P66" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q66" s="45"/>
+    </row>
+    <row r="67" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" s="45"/>
+      <c r="N67" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O67" s="19"/>
+      <c r="P67" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q67" s="45"/>
+    </row>
+    <row r="68" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" s="45"/>
+      <c r="N68" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="19"/>
+      <c r="P68" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="45"/>
+    </row>
+    <row r="69" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" s="45"/>
+      <c r="N69" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="19"/>
+      <c r="P69" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" s="45"/>
+    </row>
+    <row r="70" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" s="45"/>
+      <c r="N70" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="19"/>
+      <c r="P70" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q70" s="45"/>
+    </row>
+    <row r="71" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" s="45"/>
+      <c r="N71" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" s="19"/>
+      <c r="P71" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q71" s="45"/>
+    </row>
+    <row r="72" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" s="45"/>
+      <c r="N72" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q72" s="45"/>
+    </row>
+    <row r="73" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" s="45"/>
+      <c r="N73" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" s="19"/>
+      <c r="P73" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q73" s="45"/>
+    </row>
+    <row r="74" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I74" s="45"/>
+      <c r="N74" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="19"/>
+      <c r="P74" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q74" s="45"/>
+    </row>
+    <row r="75" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" s="45"/>
+      <c r="N75" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" s="19"/>
+      <c r="P75" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q75" s="45"/>
+    </row>
+    <row r="76" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="45"/>
+      <c r="N76" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O76" s="19"/>
+      <c r="P76" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q76" s="45"/>
+    </row>
+    <row r="77" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="45"/>
+      <c r="N77" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="19"/>
+      <c r="P77" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q77" s="45"/>
+    </row>
+    <row r="78" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="19"/>
+      <c r="H78" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="45"/>
+      <c r="N78" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O78" s="19"/>
+      <c r="P78" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q78" s="45"/>
+    </row>
+    <row r="79" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" s="45"/>
+      <c r="N79" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="19"/>
+      <c r="P79" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q79" s="45"/>
+    </row>
+    <row r="80" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" s="45"/>
+      <c r="N80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="19"/>
+      <c r="P80" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q80" s="45"/>
+    </row>
+    <row r="81" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81" s="45"/>
+      <c r="N81" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O81" s="19"/>
+      <c r="P81" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q81" s="45"/>
+    </row>
+    <row r="82" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="45"/>
+      <c r="N82" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="O82" s="19"/>
+      <c r="P82" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q82" s="45"/>
+    </row>
+    <row r="83" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="45"/>
+      <c r="N83" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" s="19"/>
+      <c r="P83" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q83" s="45"/>
+    </row>
+    <row r="84" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I84" s="45"/>
+      <c r="N84" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" s="19"/>
+      <c r="P84" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q84" s="45"/>
+    </row>
+    <row r="85" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I85" s="45"/>
+      <c r="N85" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O85" s="19"/>
+      <c r="P85" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q85" s="45"/>
+    </row>
+    <row r="86" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I86" s="45"/>
+      <c r="N86" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O86" s="19"/>
+      <c r="P86" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q86" s="45"/>
+    </row>
+    <row r="87" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="19"/>
+      <c r="H87" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I87" s="45"/>
+      <c r="N87" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O87" s="19"/>
+      <c r="P87" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q87" s="45"/>
+    </row>
+    <row r="88" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="45"/>
+      <c r="N88" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O88" s="19"/>
+      <c r="P88" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" s="45"/>
+    </row>
+    <row r="89" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I89" s="45"/>
+      <c r="N89" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="19"/>
+      <c r="P89" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q89" s="45"/>
+    </row>
+    <row r="90" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="19"/>
+      <c r="H90" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I90" s="45"/>
+      <c r="N90" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O90" s="19"/>
+      <c r="P90" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q90" s="45"/>
+    </row>
+    <row r="91" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I91" s="45"/>
+      <c r="N91" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="O91" s="19"/>
+      <c r="P91" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q91" s="45"/>
+    </row>
+    <row r="92" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I92" s="45"/>
+      <c r="N92" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O92" s="19"/>
+      <c r="P92" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q92" s="45"/>
+    </row>
+    <row r="93" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I93" s="45"/>
+      <c r="N93" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O93" s="19"/>
+      <c r="P93" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q93" s="45"/>
+    </row>
+    <row r="94" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="H94" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I94" s="45"/>
+      <c r="N94" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="O94" s="19"/>
+      <c r="P94" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q94" s="45"/>
+    </row>
+    <row r="95" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="H95" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I95" s="45"/>
+      <c r="N95" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="O95" s="19"/>
+      <c r="P95" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q95" s="45"/>
+    </row>
+    <row r="96" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="19"/>
+      <c r="H96" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I96" s="45"/>
+      <c r="N96" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O96" s="19"/>
+      <c r="P96" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q96" s="45"/>
+    </row>
+    <row r="97" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" s="45"/>
+      <c r="N97" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O97" s="19"/>
+      <c r="P97" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q97" s="45"/>
+    </row>
+    <row r="98" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="19"/>
+      <c r="H98" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I98" s="45"/>
+      <c r="N98" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="O98" s="19"/>
+      <c r="P98" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q98" s="45"/>
+    </row>
+    <row r="99" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="19"/>
+      <c r="H99" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I99" s="45"/>
+      <c r="N99" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="O99" s="19"/>
+      <c r="P99" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q99" s="45"/>
+    </row>
+    <row r="100" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="45"/>
+      <c r="N100" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="O100" s="19"/>
+      <c r="P100" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q100" s="45"/>
+    </row>
+    <row r="101" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G101" s="19"/>
+      <c r="H101" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I101" s="45"/>
+      <c r="N101" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O101" s="19"/>
+      <c r="P101" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q101" s="45"/>
+    </row>
+    <row r="102" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="19"/>
+      <c r="H102" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I102" s="45"/>
+      <c r="N102" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O102" s="19"/>
+      <c r="P102" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q102" s="45"/>
+    </row>
+    <row r="103" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" s="19"/>
+      <c r="H103" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I103" s="45"/>
+      <c r="N103" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O103" s="19"/>
+      <c r="P103" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q103" s="45"/>
+    </row>
+    <row r="104" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="19"/>
+      <c r="H104" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I104" s="45"/>
+      <c r="N104" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="O104" s="19"/>
+      <c r="P104" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q104" s="45"/>
+    </row>
+    <row r="105" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="19"/>
+      <c r="H105" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" s="45"/>
+      <c r="N105" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="O105" s="19"/>
+      <c r="P105" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q105" s="45"/>
+    </row>
+    <row r="106" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" s="19"/>
+      <c r="H106" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="45"/>
+      <c r="N106" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="O106" s="19"/>
+      <c r="P106" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q106" s="45"/>
+    </row>
+    <row r="107" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="19"/>
+      <c r="H107" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I107" s="45"/>
+      <c r="N107" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="O107" s="19"/>
+      <c r="P107" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q107" s="45"/>
+    </row>
+    <row r="114" spans="27:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA114" s="37"/>
+      <c r="AB114" s="46"/>
+    </row>
+    <row r="115" spans="27:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA115" s="37"/>
+      <c r="AB115" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="N56:Q56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78916D3A-AE43-41D8-BFD7-D36F8AB9049B}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/resultados/Tabla Completa.xlsx
+++ b/resultados/Tabla Completa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica3MH\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F9FF4-9553-43F8-9A0B-86D2E16E4D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28750BC1-5433-4760-BD00-C84D1B590DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="83">
   <si>
     <t>Nº casos:</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Algoritmo ILS</t>
+  </si>
+  <si>
+    <t>Algoritmo ILS-ES</t>
   </si>
 </sst>
 </file>
@@ -9449,7 +9452,7 @@
   <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9659,7 +9662,7 @@
       </c>
       <c r="L6" s="46">
         <f>AVERAGE(H4:H53)</f>
-        <v>0.64411707739281976</v>
+        <v>0.53506916814289818</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>10</v>
@@ -9790,11 +9793,11 @@
         <v>15</v>
       </c>
       <c r="G9" s="19">
-        <v>35.3431</v>
+        <v>20.395600000000002</v>
       </c>
       <c r="H9" s="20">
         <f>(G9-D9)/G9</f>
-        <v>0.64015720183006863</v>
+        <v>0.37643609405951783</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="40"/>
@@ -9833,11 +9836,11 @@
         <v>16</v>
       </c>
       <c r="G10" s="19">
-        <v>23.762499999999999</v>
+        <v>24.0961</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" ref="H10:H53" si="0">(G10-D10)/G10</f>
-        <v>0.40668069437139609</v>
+        <v>0.41489494150506928</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="40"/>
@@ -9876,11 +9879,11 @@
         <v>17</v>
       </c>
       <c r="G11" s="19">
-        <v>26.1799</v>
+        <v>16.761199999999999</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="0"/>
-        <v>0.35976875389135177</v>
+        <v>5.966160059287754E-7</v>
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="40"/>
@@ -9919,11 +9922,11 @@
         <v>18</v>
       </c>
       <c r="G12" s="19">
-        <v>25.825800000000001</v>
+        <v>42.193300000000001</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" si="0"/>
-        <v>0.33906364952876977</v>
+        <v>0.5954521215453662</v>
       </c>
       <c r="I12" s="45"/>
       <c r="J12" s="40"/>
@@ -9962,11 +9965,11 @@
         <v>19</v>
       </c>
       <c r="G13" s="19">
-        <v>33.910499999999999</v>
+        <v>41.58</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="0"/>
-        <v>0.31392253136934284</v>
+        <v>0.44047065897066134</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="40"/>
@@ -10003,11 +10006,11 @@
         <v>20</v>
       </c>
       <c r="G14" s="19">
-        <v>6.7080099999999998</v>
+        <v>20.669</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="0"/>
-        <v>0.71286566358726067</v>
+        <v>0.90681213411388939</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="40"/>
@@ -10044,11 +10047,11 @@
         <v>21</v>
       </c>
       <c r="G15" s="19">
-        <v>3.9314</v>
+        <v>13.558</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0.46048735819298214</v>
+        <v>0.84355804690956548</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="40"/>
@@ -10085,11 +10088,11 @@
         <v>22</v>
       </c>
       <c r="G16" s="19">
-        <v>2.3622700000000001</v>
+        <v>20.425999999999998</v>
       </c>
       <c r="H16" s="20">
         <f t="shared" si="0"/>
-        <v>-1.6932865413282116E-5</v>
+        <v>0.88434788994418978</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="40"/>
@@ -10126,11 +10129,11 @@
         <v>23</v>
       </c>
       <c r="G17" s="19">
-        <v>7.3065499999999997</v>
+        <v>22.784400000000002</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="0"/>
-        <v>0.77236862814872953</v>
+        <v>0.92700268604835323</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="40"/>
@@ -10167,11 +10170,11 @@
         <v>24</v>
       </c>
       <c r="G18" s="19">
-        <v>8.2203999999999997</v>
+        <v>15.880599999999999</v>
       </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v>0.65292078244368157</v>
+        <v>0.82033865219198521</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="5"/>
@@ -10208,11 +10211,11 @@
         <v>25</v>
       </c>
       <c r="G19" s="19">
-        <v>187.79300000000001</v>
+        <v>98.908000000000001</v>
       </c>
       <c r="H19" s="20">
         <f t="shared" si="0"/>
-        <v>0.77237820366041809</v>
+        <v>0.5678228252517582</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="5"/>
@@ -10249,11 +10252,11 @@
         <v>26</v>
       </c>
       <c r="G20" s="19">
-        <v>128.66200000000001</v>
+        <v>101.58199999999999</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
-        <v>0.62609309664081392</v>
+        <v>0.52641599889744639</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="37"/>
@@ -10290,11 +10293,11 @@
         <v>27</v>
       </c>
       <c r="G21" s="19">
-        <v>146.64699999999999</v>
+        <v>83.838499999999996</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
-        <v>0.70544170695616204</v>
+        <v>0.48477024278822139</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="37"/>
@@ -10331,11 +10334,11 @@
         <v>28</v>
       </c>
       <c r="G22" s="19">
-        <v>150.749</v>
+        <v>213.67400000000001</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v>0.69212100909459162</v>
+        <v>0.78278850023868407</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="40"/>
@@ -10372,11 +10375,11 @@
         <v>29</v>
       </c>
       <c r="G23" s="19">
-        <v>141.173</v>
+        <v>115.76300000000001</v>
       </c>
       <c r="H23" s="20">
         <f t="shared" si="0"/>
-        <v>0.6620096619041913</v>
+        <v>0.58782071991914864</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="40"/>
@@ -10415,11 +10418,11 @@
         <v>30</v>
       </c>
       <c r="G24" s="19">
-        <v>63.0884</v>
+        <v>40.609400000000001</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
-        <v>0.78075177053150979</v>
+        <v>0.6593887129580861</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="40"/>
@@ -10458,11 +10461,11 @@
         <v>31</v>
       </c>
       <c r="G25" s="19">
-        <v>54.9651</v>
+        <v>43.702599999999997</v>
       </c>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
-        <v>0.75139970635912057</v>
+        <v>0.68733347672677825</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="1"/>
@@ -10501,11 +10504,11 @@
         <v>32</v>
       </c>
       <c r="G26" s="19">
-        <v>60.752200000000002</v>
+        <v>39.7926</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v>0.74741029954471117</v>
+        <v>0.6143659876459493</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="1"/>
@@ -10544,11 +10547,11 @@
         <v>33</v>
       </c>
       <c r="G27" s="19">
-        <v>72.843000000000004</v>
+        <v>26.387</v>
       </c>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
-        <v>0.88137995414797043</v>
+        <v>0.67254178193809866</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="1"/>
@@ -10587,11 +10590,11 @@
         <v>34</v>
       </c>
       <c r="G28" s="19">
-        <v>66.075000000000003</v>
+        <v>49.450099999999999</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v>0.73968202799848815</v>
+        <v>0.65216430300444483</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="1"/>
@@ -10630,11 +10633,11 @@
         <v>35</v>
       </c>
       <c r="G29" s="19">
-        <v>650.55200000000002</v>
+        <v>251.71799999999999</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" si="0"/>
-        <v>0.74063627504027196</v>
+        <v>0.32968802389975688</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="1"/>
@@ -10673,11 +10676,11 @@
         <v>36</v>
       </c>
       <c r="G30" s="19">
-        <v>562.44299999999998</v>
+        <v>316.04899999999998</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>0.77402641689913465</v>
+        <v>0.59785583880980475</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="40"/>
@@ -10716,11 +10719,11 @@
         <v>37</v>
       </c>
       <c r="G31" s="19">
-        <v>657.85400000000004</v>
+        <v>332.61099999999999</v>
       </c>
       <c r="H31" s="20">
         <f t="shared" si="0"/>
-        <v>0.83829361834084926</v>
+        <v>0.68016935699661463</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="1"/>
@@ -10759,11 +10762,11 @@
         <v>38</v>
       </c>
       <c r="G32" s="19">
-        <v>550.39200000000005</v>
+        <v>206.65899999999999</v>
       </c>
       <c r="H32" s="20">
         <f t="shared" si="0"/>
-        <v>0.75026315789473863</v>
+        <v>0.33487939068707867</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="1"/>
@@ -10802,11 +10805,11 @@
         <v>39</v>
       </c>
       <c r="G33" s="19">
-        <v>619.62400000000002</v>
+        <v>432.4</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="0"/>
-        <v>0.79426274643977479</v>
+        <v>0.70518098982423449</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="1"/>
@@ -10845,11 +10848,11 @@
         <v>40</v>
       </c>
       <c r="G34" s="19">
-        <v>126.08</v>
+        <v>65.990399999999994</v>
       </c>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
-        <v>0.90684375000000084</v>
+        <v>0.82201744496169293</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="1"/>
@@ -10888,11 +10891,11 @@
         <v>41</v>
       </c>
       <c r="G35" s="19">
-        <v>90.240799999999993</v>
+        <v>47.7727</v>
       </c>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
-        <v>0.79179118536183524</v>
+        <v>0.60670152618546369</v>
       </c>
       <c r="I35" s="45"/>
       <c r="J35" s="1"/>
@@ -10931,11 +10934,11 @@
         <v>42</v>
       </c>
       <c r="G36" s="19">
-        <v>104.883</v>
+        <v>53.1798</v>
       </c>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
-        <v>0.82331169016904737</v>
+        <v>0.65152934008778152</v>
       </c>
       <c r="I36" s="45"/>
       <c r="J36" s="40"/>
@@ -10974,11 +10977,11 @@
         <v>43</v>
       </c>
       <c r="G37" s="19">
-        <v>140.34800000000001</v>
+        <v>39.358199999999997</v>
       </c>
       <c r="H37" s="20">
         <f t="shared" si="0"/>
-        <v>0.86114280217744388</v>
+        <v>0.50484702044300545</v>
       </c>
       <c r="I37" s="45"/>
       <c r="J37" s="1"/>
@@ -11017,11 +11020,11 @@
         <v>44</v>
       </c>
       <c r="G38" s="19">
-        <v>112.994</v>
+        <v>63.228999999999999</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
-        <v>0.83970458608421861</v>
+        <v>0.71354252004618446</v>
       </c>
       <c r="I38" s="45"/>
       <c r="J38" s="1"/>
@@ -11060,11 +11063,11 @@
         <v>45</v>
       </c>
       <c r="G39" s="19">
-        <v>819.44100000000003</v>
+        <v>353.99799999999999</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
-        <v>0.8103160935320517</v>
+        <v>0.56091624811439045</v>
       </c>
       <c r="I39" s="45"/>
       <c r="J39" s="1"/>
@@ -11103,11 +11106,11 @@
         <v>46</v>
       </c>
       <c r="G40" s="19">
-        <v>942.75599999999997</v>
+        <v>445.214</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
-        <v>0.78902852912100374</v>
+        <v>0.55326063421186433</v>
       </c>
       <c r="I40" s="45"/>
       <c r="J40" s="1"/>
@@ -11146,11 +11149,11 @@
         <v>47</v>
       </c>
       <c r="G41" s="19">
-        <v>855.93499999999995</v>
+        <v>376.84199999999998</v>
       </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
-        <v>0.78039567256859455</v>
+        <v>0.50120466933091323</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="1"/>
@@ -11189,11 +11192,11 @@
         <v>48</v>
       </c>
       <c r="G42" s="19">
-        <v>799.60400000000004</v>
+        <v>322.94499999999999</v>
       </c>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
-        <v>0.78915788315215907</v>
+        <v>0.47796002415271638</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="40"/>
@@ -11232,11 +11235,11 @@
         <v>49</v>
       </c>
       <c r="G43" s="19">
-        <v>833.20699999999999</v>
+        <v>353.88499999999999</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
-        <v>0.78613509007965243</v>
+        <v>0.49646427511761443</v>
       </c>
       <c r="I43" s="45"/>
       <c r="J43" s="1"/>
@@ -11275,11 +11278,11 @@
         <v>50</v>
       </c>
       <c r="G44" s="19">
-        <v>194.72200000000001</v>
+        <v>69.3386</v>
       </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
-        <v>0.88010558642577474</v>
+        <v>0.66330326830942221</v>
       </c>
       <c r="I44" s="45"/>
       <c r="J44" s="5"/>
@@ -11318,11 +11321,11 @@
         <v>51</v>
       </c>
       <c r="G45" s="19">
-        <v>183.56200000000001</v>
+        <v>66.588300000000004</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
-        <v>0.8540574846645842</v>
+        <v>0.59768457822170562</v>
       </c>
       <c r="I45" s="45"/>
       <c r="J45" s="1"/>
@@ -11361,11 +11364,11 @@
         <v>52</v>
       </c>
       <c r="G46" s="19">
-        <v>170.95500000000001</v>
+        <v>75.575800000000001</v>
       </c>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
-        <v>0.84349992688134534</v>
+        <v>0.6459915740223775</v>
       </c>
       <c r="I46" s="45"/>
       <c r="J46" s="1"/>
@@ -11404,11 +11407,11 @@
         <v>53</v>
       </c>
       <c r="G47" s="19">
-        <v>169.684</v>
+        <v>117.842</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
-        <v>0.84715359138162405</v>
+        <v>0.77991217053342188</v>
       </c>
       <c r="I47" s="45"/>
       <c r="J47" s="1"/>
@@ -11447,11 +11450,11 @@
         <v>54</v>
       </c>
       <c r="G48" s="19">
-        <v>130.828</v>
+        <v>52.802700000000002</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
-        <v>0.78771356284587857</v>
+        <v>0.47402291928254808</v>
       </c>
       <c r="I48" s="45"/>
       <c r="J48" s="1"/>
@@ -11490,11 +11493,11 @@
         <v>55</v>
       </c>
       <c r="G49" s="19">
-        <v>1037.47</v>
+        <v>570.06100000000004</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
-        <v>0.78047624509624569</v>
+        <v>0.60048256239244924</v>
       </c>
       <c r="I49" s="45"/>
       <c r="L49" s="42"/>
@@ -11529,11 +11532,11 @@
         <v>56</v>
       </c>
       <c r="G50" s="19">
-        <v>1069.29</v>
+        <v>382.29199999999997</v>
       </c>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
-        <v>0.78621056963031544</v>
+        <v>0.40202018352463559</v>
       </c>
       <c r="I50" s="45"/>
       <c r="L50" s="42"/>
@@ -11568,11 +11571,11 @@
         <v>57</v>
       </c>
       <c r="G51" s="19">
-        <v>954.46100000000001</v>
+        <v>445.37900000000002</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
-        <v>0.76243624412102851</v>
+        <v>0.49089350867463666</v>
       </c>
       <c r="I51" s="45"/>
       <c r="L51" s="42"/>
@@ -11607,11 +11610,11 @@
         <v>58</v>
       </c>
       <c r="G52" s="19">
-        <v>1134.52</v>
+        <v>663.87599999999998</v>
       </c>
       <c r="H52" s="20">
         <f t="shared" si="0"/>
-        <v>0.80043577019355938</v>
+        <v>0.65895798311732456</v>
       </c>
       <c r="I52" s="45"/>
       <c r="L52" s="42"/>
@@ -11646,11 +11649,11 @@
         <v>59</v>
       </c>
       <c r="G53" s="19">
-        <v>1089.42</v>
+        <v>460.20299999999997</v>
       </c>
       <c r="H53" s="20">
         <f t="shared" si="0"/>
-        <v>0.77156962420370656</v>
+        <v>0.45924598492404872</v>
       </c>
       <c r="I53" s="45"/>
       <c r="L53" s="42"/>
@@ -11676,7 +11679,7 @@
       <c r="H56" s="61"/>
       <c r="I56" s="61"/>
       <c r="N56" s="61" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="O56" s="61"/>
       <c r="P56" s="61"/>
@@ -11766,9 +11769,9 @@
       <c r="K60" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="46" t="e">
+      <c r="L60" s="46">
         <f>AVERAGE(H58:H107)</f>
-        <v>#DIV/0!</v>
+        <v>0.34205446116301763</v>
       </c>
       <c r="N60" s="44" t="s">
         <v>10</v>
@@ -11783,9 +11786,9 @@
       <c r="S60" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="T60" s="46" t="e">
+      <c r="T60" s="46">
         <f>AVERAGE(P58:P107)</f>
-        <v>#DIV/0!</v>
+        <v>0.40200057722664384</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11850,19 +11853,23 @@
       <c r="F63" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20" t="e">
+      <c r="G63" s="19">
+        <v>12.718</v>
+      </c>
+      <c r="H63" s="20">
         <f>(G63-D9)/G63</f>
-        <v>#DIV/0!</v>
+        <v>3.1451486318970241E-6</v>
       </c>
       <c r="I63" s="45"/>
       <c r="N63" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O63" s="19"/>
-      <c r="P63" s="20" t="e">
+      <c r="O63" s="19">
+        <v>27.5288</v>
+      </c>
+      <c r="P63" s="20">
         <f>(O63-D9)/O63</f>
-        <v>#DIV/0!</v>
+        <v>0.53801255412514537</v>
       </c>
       <c r="Q63" s="45"/>
     </row>
@@ -11870,19 +11877,23 @@
       <c r="F64" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="20" t="e">
+      <c r="G64" s="19">
+        <v>23.6648</v>
+      </c>
+      <c r="H64" s="20">
         <f t="shared" ref="H64:H107" si="2">(G64-D10)/G64</f>
-        <v>#DIV/0!</v>
+        <v>0.40423117879721354</v>
       </c>
       <c r="I64" s="45"/>
       <c r="N64" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O64" s="19"/>
-      <c r="P64" s="20" t="e">
+      <c r="O64" s="19">
+        <v>14.0985</v>
+      </c>
+      <c r="P64" s="20">
         <f t="shared" ref="P64:P107" si="3">(O64-D10)/O64</f>
-        <v>#DIV/0!</v>
+        <v>-1.7732382856402413E-5</v>
       </c>
       <c r="Q64" s="45"/>
     </row>
@@ -11890,19 +11901,23 @@
       <c r="F65" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20" t="e">
+      <c r="G65" s="19">
+        <v>21.285499999999999</v>
+      </c>
+      <c r="H65" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.21255361631158295</v>
       </c>
       <c r="I65" s="45"/>
       <c r="N65" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O65" s="19"/>
-      <c r="P65" s="20" t="e">
+      <c r="O65" s="19">
+        <v>21.285599999999999</v>
+      </c>
+      <c r="P65" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.21255731574398648</v>
       </c>
       <c r="Q65" s="45"/>
     </row>
@@ -11910,19 +11925,23 @@
       <c r="F66" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20" t="e">
+      <c r="G66" s="19">
+        <v>25.54</v>
+      </c>
+      <c r="H66" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.33166758026625298</v>
       </c>
       <c r="I66" s="45"/>
       <c r="N66" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O66" s="19"/>
-      <c r="P66" s="20" t="e">
+      <c r="O66" s="19">
+        <v>26.792000000000002</v>
+      </c>
+      <c r="P66" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.36289899970140721</v>
       </c>
       <c r="Q66" s="45"/>
     </row>
@@ -11930,19 +11949,23 @@
       <c r="F67" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="20" t="e">
+      <c r="G67" s="19">
+        <v>23.2651</v>
+      </c>
+      <c r="H67" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-5.5877687995820015E-6</v>
       </c>
       <c r="I67" s="45"/>
       <c r="N67" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O67" s="19"/>
-      <c r="P67" s="20" t="e">
+      <c r="O67" s="19">
+        <v>26.2379</v>
+      </c>
+      <c r="P67" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.11329679585637953</v>
       </c>
       <c r="Q67" s="45"/>
     </row>
@@ -11950,19 +11973,23 @@
       <c r="F68" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="20" t="e">
+      <c r="G68" s="19">
+        <v>8.8288600000000006</v>
+      </c>
+      <c r="H68" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.78184046411427754</v>
       </c>
       <c r="I68" s="45"/>
       <c r="N68" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="19"/>
-      <c r="P68" s="20" t="e">
+      <c r="O68" s="19">
+        <v>9.2361500000000003</v>
+      </c>
+      <c r="P68" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.79146072768415199</v>
       </c>
       <c r="Q68" s="45"/>
     </row>
@@ -11970,19 +11997,23 @@
       <c r="F69" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20" t="e">
+      <c r="G69" s="19">
+        <v>3.2940700000000001</v>
+      </c>
+      <c r="H69" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.35610354364050856</v>
       </c>
       <c r="I69" s="45"/>
       <c r="N69" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O69" s="19"/>
-      <c r="P69" s="20" t="e">
+      <c r="O69" s="19">
+        <v>2.0513300000000001</v>
+      </c>
+      <c r="P69" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-3.3982830651387075E-2</v>
       </c>
       <c r="Q69" s="45"/>
     </row>
@@ -11990,19 +12021,23 @@
       <c r="F70" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="20" t="e">
+      <c r="G70" s="19">
+        <v>12.976699999999999</v>
+      </c>
+      <c r="H70" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.81795757010642312</v>
       </c>
       <c r="I70" s="45"/>
       <c r="N70" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="O70" s="19"/>
-      <c r="P70" s="20" t="e">
+      <c r="O70" s="19">
+        <v>10.7013</v>
+      </c>
+      <c r="P70" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.77925018455701833</v>
       </c>
       <c r="Q70" s="45"/>
     </row>
@@ -12010,19 +12045,23 @@
       <c r="F71" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="20" t="e">
+      <c r="G71" s="19">
+        <v>8.6731599999999993</v>
+      </c>
+      <c r="H71" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.80823598319414136</v>
       </c>
       <c r="I71" s="45"/>
       <c r="N71" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="19"/>
-      <c r="P71" s="20" t="e">
+      <c r="O71" s="19">
+        <v>3.1857000000000002</v>
+      </c>
+      <c r="P71" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.47791694133160689</v>
       </c>
       <c r="Q71" s="45"/>
     </row>
@@ -12030,19 +12069,23 @@
       <c r="F72" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="20" t="e">
+      <c r="G72" s="19">
+        <v>2.9436</v>
+      </c>
+      <c r="H72" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.0734474792784277E-2</v>
       </c>
       <c r="I72" s="45"/>
       <c r="N72" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="20" t="e">
+      <c r="O72" s="19">
+        <v>6.2682500000000001</v>
+      </c>
+      <c r="P72" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.54482830136003513</v>
       </c>
       <c r="Q72" s="45"/>
     </row>
@@ -12050,19 +12093,23 @@
       <c r="F73" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="20" t="e">
+      <c r="G73" s="19">
+        <v>85.927000000000007</v>
+      </c>
+      <c r="H73" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.50253377867260463</v>
       </c>
       <c r="I73" s="45"/>
       <c r="N73" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="O73" s="19"/>
-      <c r="P73" s="20" t="e">
+      <c r="O73" s="19">
+        <v>62.894799999999996</v>
+      </c>
+      <c r="P73" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.32036066574662608</v>
       </c>
       <c r="Q73" s="45"/>
     </row>
@@ -12070,19 +12117,23 @@
       <c r="F74" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="20" t="e">
+      <c r="G74" s="19">
+        <v>48.107399999999998</v>
+      </c>
+      <c r="H74" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-4.3652327834138639E-6</v>
       </c>
       <c r="I74" s="45"/>
       <c r="N74" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O74" s="19"/>
-      <c r="P74" s="20" t="e">
+      <c r="O74" s="19">
+        <v>67.354200000000006</v>
+      </c>
+      <c r="P74" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.28575189075069413</v>
       </c>
       <c r="Q74" s="45"/>
     </row>
@@ -12090,19 +12141,23 @@
       <c r="F75" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20" t="e">
+      <c r="G75" s="19">
+        <v>65.883899999999997</v>
+      </c>
+      <c r="H75" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.34436045832138501</v>
       </c>
       <c r="I75" s="45"/>
       <c r="N75" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O75" s="19"/>
-      <c r="P75" s="20" t="e">
+      <c r="O75" s="19">
+        <v>59.159799999999997</v>
+      </c>
+      <c r="P75" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.26984049979885494</v>
       </c>
       <c r="Q75" s="45"/>
     </row>
@@ -12110,19 +12165,23 @@
       <c r="F76" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="20" t="e">
+      <c r="G76" s="19">
+        <v>63.942700000000002</v>
+      </c>
+      <c r="H76" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.27415561119565796</v>
       </c>
       <c r="I76" s="45"/>
       <c r="N76" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="19"/>
-      <c r="P76" s="20" t="e">
+      <c r="O76" s="19">
+        <v>72.616299999999995</v>
+      </c>
+      <c r="P76" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.36085355491811888</v>
       </c>
       <c r="Q76" s="45"/>
     </row>
@@ -12130,19 +12189,23 @@
       <c r="F77" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="20" t="e">
+      <c r="G77" s="19">
+        <v>53.5642</v>
+      </c>
+      <c r="H77" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.10919774774943716</v>
       </c>
       <c r="I77" s="45"/>
       <c r="N77" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O77" s="19"/>
-      <c r="P77" s="20" t="e">
+      <c r="O77" s="19">
+        <v>47.7151</v>
+      </c>
+      <c r="P77" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-2.0957725328386146E-7</v>
       </c>
       <c r="Q77" s="45"/>
     </row>
@@ -12150,19 +12213,23 @@
       <c r="F78" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="20" t="e">
+      <c r="G78" s="19">
+        <v>23.728000000000002</v>
+      </c>
+      <c r="H78" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.41705917060013908</v>
       </c>
       <c r="I78" s="45"/>
       <c r="N78" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O78" s="19"/>
-      <c r="P78" s="20" t="e">
+      <c r="O78" s="19">
+        <v>27.955300000000001</v>
+      </c>
+      <c r="P78" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50520938784416913</v>
       </c>
       <c r="Q78" s="45"/>
     </row>
@@ -12170,19 +12237,23 @@
       <c r="F79" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="20" t="e">
+      <c r="G79" s="19">
+        <v>21.758500000000002</v>
+      </c>
+      <c r="H79" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.37199990808188532</v>
       </c>
       <c r="I79" s="45"/>
       <c r="N79" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O79" s="19"/>
-      <c r="P79" s="20" t="e">
+      <c r="O79" s="19">
+        <v>30.953700000000001</v>
+      </c>
+      <c r="P79" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.55855552001859887</v>
       </c>
       <c r="Q79" s="45"/>
     </row>
@@ -12190,19 +12261,23 @@
       <c r="F80" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="20" t="e">
+      <c r="G80" s="19">
+        <v>35.277500000000003</v>
+      </c>
+      <c r="H80" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5650094252710709</v>
       </c>
       <c r="I80" s="45"/>
       <c r="N80" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="O80" s="19"/>
-      <c r="P80" s="20" t="e">
+      <c r="O80" s="19">
+        <v>27.299499999999998</v>
+      </c>
+      <c r="P80" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.43788787340428209</v>
       </c>
       <c r="Q80" s="45"/>
     </row>
@@ -12210,19 +12285,23 @@
       <c r="F81" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="20" t="e">
+      <c r="G81" s="19">
+        <v>26.5731</v>
+      </c>
+      <c r="H81" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.67483507757847638</v>
       </c>
       <c r="I81" s="45"/>
       <c r="N81" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="19"/>
-      <c r="P81" s="20" t="e">
+      <c r="O81" s="19">
+        <v>29.7852</v>
+      </c>
+      <c r="P81" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.70990156184952957</v>
       </c>
       <c r="Q81" s="45"/>
     </row>
@@ -12230,19 +12309,23 @@
       <c r="F82" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="20" t="e">
+      <c r="G82" s="19">
+        <v>26.0747</v>
+      </c>
+      <c r="H82" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.34033718508746413</v>
       </c>
       <c r="I82" s="45"/>
       <c r="N82" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="O82" s="19"/>
-      <c r="P82" s="20" t="e">
+      <c r="O82" s="19">
+        <v>28.194900000000001</v>
+      </c>
+      <c r="P82" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.38994250733289004</v>
       </c>
       <c r="Q82" s="45"/>
     </row>
@@ -12250,19 +12333,23 @@
       <c r="F83" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20" t="e">
+      <c r="G83" s="19">
+        <v>278.68599999999998</v>
+      </c>
+      <c r="H83" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.39455304536287789</v>
       </c>
       <c r="I83" s="45"/>
       <c r="N83" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O83" s="19"/>
-      <c r="P83" s="20" t="e">
+      <c r="O83" s="19">
+        <v>288.97000000000003</v>
+      </c>
+      <c r="P83" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.4160999757760287</v>
       </c>
       <c r="Q83" s="45"/>
     </row>
@@ -12270,19 +12357,23 @@
       <c r="F84" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="20" t="e">
+      <c r="G84" s="19">
+        <v>234.26599999999999</v>
+      </c>
+      <c r="H84" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.4574660428743394</v>
       </c>
       <c r="I84" s="45"/>
       <c r="N84" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="O84" s="19"/>
-      <c r="P84" s="20" t="e">
+      <c r="O84" s="19">
+        <v>299.48599999999999</v>
+      </c>
+      <c r="P84" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.57561535430704602</v>
       </c>
       <c r="Q84" s="45"/>
     </row>
@@ -12290,19 +12381,23 @@
       <c r="F85" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20" t="e">
+      <c r="G85" s="19">
+        <v>214.94300000000001</v>
+      </c>
+      <c r="H85" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.50508185891143698</v>
       </c>
       <c r="I85" s="45"/>
       <c r="N85" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O85" s="19"/>
-      <c r="P85" s="20" t="e">
+      <c r="O85" s="19">
+        <v>226.61</v>
+      </c>
+      <c r="P85" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.53056268478884872</v>
       </c>
       <c r="Q85" s="45"/>
     </row>
@@ -12310,19 +12405,23 @@
       <c r="F86" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="20" t="e">
+      <c r="G86" s="19">
+        <v>167.79499999999999</v>
+      </c>
+      <c r="H86" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.18082684227778531</v>
       </c>
       <c r="I86" s="45"/>
       <c r="N86" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="O86" s="19"/>
-      <c r="P86" s="20" t="e">
+      <c r="O86" s="19">
+        <v>263.75200000000001</v>
+      </c>
+      <c r="P86" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.47885453001304634</v>
       </c>
       <c r="Q86" s="45"/>
     </row>
@@ -12330,19 +12429,23 @@
       <c r="F87" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="20" t="e">
+      <c r="G87" s="19">
+        <v>184.33099999999999</v>
+      </c>
+      <c r="H87" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.30841941941398349</v>
       </c>
       <c r="I87" s="45"/>
       <c r="N87" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O87" s="19"/>
-      <c r="P87" s="20" t="e">
+      <c r="O87" s="19">
+        <v>231.565</v>
+      </c>
+      <c r="P87" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.44948614859758168</v>
       </c>
       <c r="Q87" s="45"/>
     </row>
@@ -12350,19 +12453,23 @@
       <c r="F88" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="20" t="e">
+      <c r="G88" s="19">
+        <v>15.9229</v>
+      </c>
+      <c r="H88" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.26237431623637031</v>
       </c>
       <c r="I88" s="45"/>
       <c r="N88" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="O88" s="19"/>
-      <c r="P88" s="20" t="e">
+      <c r="O88" s="19">
+        <v>26.158000000000001</v>
+      </c>
+      <c r="P88" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.55099243061396519</v>
       </c>
       <c r="Q88" s="45"/>
     </row>
@@ -12370,19 +12477,23 @@
       <c r="F89" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="20" t="e">
+      <c r="G89" s="19">
+        <v>37.3917</v>
+      </c>
+      <c r="H89" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.49751067750330424</v>
       </c>
       <c r="I89" s="45"/>
       <c r="N89" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O89" s="19"/>
-      <c r="P89" s="20" t="e">
+      <c r="O89" s="19">
+        <v>41.608400000000003</v>
+      </c>
+      <c r="P89" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.54843421039983042</v>
       </c>
       <c r="Q89" s="45"/>
     </row>
@@ -12390,19 +12501,23 @@
       <c r="F90" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G90" s="19"/>
-      <c r="H90" s="20" t="e">
+      <c r="G90" s="19">
+        <v>30.442</v>
+      </c>
+      <c r="H90" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.39124893239603842</v>
       </c>
       <c r="I90" s="45"/>
       <c r="N90" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O90" s="19"/>
-      <c r="P90" s="20" t="e">
+      <c r="O90" s="19">
+        <v>25.621400000000001</v>
+      </c>
+      <c r="P90" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.27671399689322995</v>
       </c>
       <c r="Q90" s="45"/>
     </row>
@@ -12410,19 +12525,23 @@
       <c r="F91" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="20" t="e">
+      <c r="G91" s="19">
+        <v>36.482300000000002</v>
+      </c>
+      <c r="H91" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.46581410711495441</v>
       </c>
       <c r="I91" s="45"/>
       <c r="N91" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="19"/>
-      <c r="P91" s="20" t="e">
+      <c r="O91" s="19">
+        <v>37.203000000000003</v>
+      </c>
+      <c r="P91" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.47616240625755718</v>
       </c>
       <c r="Q91" s="45"/>
     </row>
@@ -12430,19 +12549,23 @@
       <c r="F92" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="20" t="e">
+      <c r="G92" s="19">
+        <v>24.941500000000001</v>
+      </c>
+      <c r="H92" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.27380390112864905</v>
       </c>
       <c r="I92" s="45"/>
       <c r="N92" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O92" s="19"/>
-      <c r="P92" s="20" t="e">
+      <c r="O92" s="19">
+        <v>37.932200000000002</v>
+      </c>
+      <c r="P92" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.52250541756081115</v>
       </c>
       <c r="Q92" s="45"/>
     </row>
@@ -12450,19 +12573,23 @@
       <c r="F93" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="20" t="e">
+      <c r="G93" s="19">
+        <v>261.66500000000002</v>
+      </c>
+      <c r="H93" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.40597798712092947</v>
       </c>
       <c r="I93" s="45"/>
       <c r="N93" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="O93" s="19"/>
-      <c r="P93" s="20" t="e">
+      <c r="O93" s="19">
+        <v>335.60399999999998</v>
+      </c>
+      <c r="P93" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.53685066328171893</v>
       </c>
       <c r="Q93" s="45"/>
     </row>
@@ -12470,19 +12597,23 @@
       <c r="F94" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G94" s="19"/>
-      <c r="H94" s="20" t="e">
+      <c r="G94" s="19">
+        <v>344.08</v>
+      </c>
+      <c r="H94" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.42195239479191171</v>
       </c>
       <c r="I94" s="45"/>
       <c r="N94" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="O94" s="19"/>
-      <c r="P94" s="20" t="e">
+      <c r="O94" s="19">
+        <v>414.089</v>
+      </c>
+      <c r="P94" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.51968146944256188</v>
       </c>
       <c r="Q94" s="45"/>
     </row>
@@ -12490,19 +12621,23 @@
       <c r="F95" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G95" s="19"/>
-      <c r="H95" s="20" t="e">
+      <c r="G95" s="19">
+        <v>292.57299999999998</v>
+      </c>
+      <c r="H95" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.35753801615323355</v>
       </c>
       <c r="I95" s="45"/>
       <c r="N95" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="O95" s="19"/>
-      <c r="P95" s="20" t="e">
+      <c r="O95" s="19">
+        <v>491.13400000000001</v>
+      </c>
+      <c r="P95" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.6172795408177808</v>
       </c>
       <c r="Q95" s="45"/>
     </row>
@@ -12510,19 +12645,23 @@
       <c r="F96" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G96" s="19"/>
-      <c r="H96" s="20" t="e">
+      <c r="G96" s="19">
+        <v>313.19299999999998</v>
+      </c>
+      <c r="H96" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.46170508280836092</v>
       </c>
       <c r="I96" s="45"/>
       <c r="N96" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O96" s="19"/>
-      <c r="P96" s="20" t="e">
+      <c r="O96" s="19">
+        <v>367.524</v>
+      </c>
+      <c r="P96" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.54128111361434628</v>
       </c>
       <c r="Q96" s="45"/>
     </row>
@@ -12530,19 +12669,23 @@
       <c r="F97" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G97" s="19"/>
-      <c r="H97" s="20" t="e">
+      <c r="G97" s="19">
+        <v>294.09100000000001</v>
+      </c>
+      <c r="H97" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.39408638822676317</v>
       </c>
       <c r="I97" s="45"/>
       <c r="N97" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="O97" s="19"/>
-      <c r="P97" s="20" t="e">
+      <c r="O97" s="19">
+        <v>351.43799999999999</v>
+      </c>
+      <c r="P97" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.49295824583567227</v>
       </c>
       <c r="Q97" s="45"/>
     </row>
@@ -12550,19 +12693,23 @@
       <c r="F98" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G98" s="19"/>
-      <c r="H98" s="20" t="e">
+      <c r="G98" s="19">
+        <v>38.549300000000002</v>
+      </c>
+      <c r="H98" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.39438381501090036</v>
       </c>
       <c r="I98" s="45"/>
       <c r="N98" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O98" s="19"/>
-      <c r="P98" s="20" t="e">
+      <c r="O98" s="19">
+        <v>48.834499999999998</v>
+      </c>
+      <c r="P98" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.52193469780584834</v>
       </c>
       <c r="Q98" s="45"/>
     </row>
@@ -12570,19 +12717,23 @@
       <c r="F99" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G99" s="19"/>
-      <c r="H99" s="20" t="e">
+      <c r="G99" s="19">
+        <v>49.953899999999997</v>
+      </c>
+      <c r="H99" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.46371554573317397</v>
       </c>
       <c r="I99" s="45"/>
       <c r="N99" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O99" s="19"/>
-      <c r="P99" s="20" t="e">
+      <c r="O99" s="19">
+        <v>55.641199999999998</v>
+      </c>
+      <c r="P99" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.51853123225236697</v>
       </c>
       <c r="Q99" s="45"/>
     </row>
@@ -12590,19 +12741,23 @@
       <c r="F100" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="20" t="e">
+      <c r="G100" s="19">
+        <v>43.436300000000003</v>
+      </c>
+      <c r="H100" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.38405273929870642</v>
       </c>
       <c r="I100" s="45"/>
       <c r="N100" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O100" s="19"/>
-      <c r="P100" s="20" t="e">
+      <c r="O100" s="19">
+        <v>62.503300000000003</v>
+      </c>
+      <c r="P100" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.57195108098293057</v>
       </c>
       <c r="Q100" s="45"/>
     </row>
@@ -12610,19 +12765,23 @@
       <c r="F101" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G101" s="19"/>
-      <c r="H101" s="20" t="e">
+      <c r="G101" s="19">
+        <v>37.531100000000002</v>
+      </c>
+      <c r="H101" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.30895737135334439</v>
       </c>
       <c r="I101" s="45"/>
       <c r="N101" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="O101" s="19"/>
-      <c r="P101" s="20" t="e">
+      <c r="O101" s="19">
+        <v>38.9818</v>
+      </c>
+      <c r="P101" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.33467438650856302</v>
       </c>
       <c r="Q101" s="45"/>
     </row>
@@ -12630,19 +12789,23 @@
       <c r="F102" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="H102" s="20" t="e">
+      <c r="G102" s="19">
+        <v>44.511499999999998</v>
+      </c>
+      <c r="H102" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.37604866158185191</v>
       </c>
       <c r="I102" s="45"/>
       <c r="N102" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O102" s="19"/>
-      <c r="P102" s="20" t="e">
+      <c r="O102" s="19">
+        <v>51.915599999999998</v>
+      </c>
+      <c r="P102" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.46503536509258486</v>
       </c>
       <c r="Q102" s="45"/>
     </row>
@@ -12650,19 +12813,23 @@
       <c r="F103" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="20" t="e">
+      <c r="G103" s="19">
+        <v>436.964</v>
+      </c>
+      <c r="H103" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.47879159381551345</v>
       </c>
       <c r="I103" s="45"/>
       <c r="N103" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="O103" s="19"/>
-      <c r="P103" s="20" t="e">
+      <c r="O103" s="19">
+        <v>551.89</v>
+      </c>
+      <c r="P103" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.58732843501422749</v>
       </c>
       <c r="Q103" s="45"/>
     </row>
@@ -12670,19 +12837,23 @@
       <c r="F104" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G104" s="19"/>
-      <c r="H104" s="20" t="e">
+      <c r="G104" s="19">
+        <v>360.27600000000001</v>
+      </c>
+      <c r="H104" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.36547841099601419</v>
       </c>
       <c r="I104" s="45"/>
       <c r="N104" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="O104" s="19"/>
-      <c r="P104" s="20" t="e">
+      <c r="O104" s="19">
+        <v>471.40199999999999</v>
+      </c>
+      <c r="P104" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.51505742444877189</v>
       </c>
       <c r="Q104" s="45"/>
     </row>
@@ -12690,19 +12861,23 @@
       <c r="F105" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G105" s="19"/>
-      <c r="H105" s="20" t="e">
+      <c r="G105" s="19">
+        <v>430.69499999999999</v>
+      </c>
+      <c r="H105" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.47353616828614448</v>
       </c>
       <c r="I105" s="45"/>
       <c r="N105" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="O105" s="19"/>
-      <c r="P105" s="20" t="e">
+      <c r="O105" s="19">
+        <v>458.93799999999999</v>
+      </c>
+      <c r="P105" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50593470141936603</v>
       </c>
       <c r="Q105" s="45"/>
     </row>
@@ -12710,19 +12885,23 @@
       <c r="F106" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G106" s="19"/>
-      <c r="H106" s="20" t="e">
+      <c r="G106" s="19">
+        <v>374.98599999999999</v>
+      </c>
+      <c r="H106" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.39621849882394811</v>
       </c>
       <c r="I106" s="45"/>
       <c r="N106" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="O106" s="19"/>
-      <c r="P106" s="20" t="e">
+      <c r="O106" s="19">
+        <v>450.863</v>
+      </c>
+      <c r="P106" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.49783058268253771</v>
       </c>
       <c r="Q106" s="45"/>
     </row>
@@ -12730,19 +12909,23 @@
       <c r="F107" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="19"/>
-      <c r="H107" s="20" t="e">
+      <c r="G107" s="19">
+        <v>377.27</v>
+      </c>
+      <c r="H107" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.34037527500199322</v>
       </c>
       <c r="I107" s="45"/>
       <c r="N107" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="O107" s="19"/>
-      <c r="P107" s="20" t="e">
+      <c r="O107" s="19">
+        <v>431.85399999999998</v>
+      </c>
+      <c r="P107" s="20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.42374825751296036</v>
       </c>
       <c r="Q107" s="45"/>
     </row>
